--- a/Package_Calls/Features_Metadata.xlsx
+++ b/Package_Calls/Features_Metadata.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+  <si>
+    <t>Experiment</t>
+  </si>
   <si>
     <t>Feature_Label</t>
   </si>
@@ -25,6 +28,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Colour</t>
+  </si>
+  <si>
     <t>Colour_L*</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>Difference from the mean virgin L*</t>
   </si>
   <si>
+    <t>DSC</t>
+  </si>
+  <si>
     <t>DSC_HFM_160</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
     <t>Crystallinity as determined by DSC</t>
   </si>
   <si>
+    <t>TT</t>
+  </si>
+  <si>
     <t>TT_YM</t>
   </si>
   <si>
@@ -193,6 +205,9 @@
     <t>Ultimate tensile strength</t>
   </si>
   <si>
+    <t>ESCR</t>
+  </si>
+  <si>
     <t>ESCR_90%Failure</t>
   </si>
   <si>
@@ -229,6 +244,9 @@
     <t>Hours passed before 50% of bottles fail on ESCR</t>
   </si>
   <si>
+    <t>FTIR</t>
+  </si>
+  <si>
     <t>FTIR_908</t>
   </si>
   <si>
@@ -238,6 +256,9 @@
     <t>Strength of peak at wavenumber 908, associated with the vinyl group</t>
   </si>
   <si>
+    <t>Rheology</t>
+  </si>
+  <si>
     <t>Rhe_V_deg</t>
   </si>
   <si>
@@ -304,6 +325,9 @@
     <t>Strain hardening modulus</t>
   </si>
   <si>
+    <t>TLS</t>
+  </si>
+  <si>
     <t>TLS_3mm</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
     <t>Maximum force withstood</t>
   </si>
   <si>
+    <t>SAXS</t>
+  </si>
+  <si>
     <t>SAXS_TMF</t>
   </si>
   <si>
@@ -362,6 +389,12 @@
   </si>
   <si>
     <t>Intercrystallite Repeat Spacing</t>
+  </si>
+  <si>
+    <t>SAXS_TM_Fraction</t>
+  </si>
+  <si>
+    <t>Tie molecule content, calculated using Mn from GPC</t>
   </si>
 </sst>
 </file>
@@ -437,6 +470,21 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -470,7 +518,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -507,21 +555,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -544,31 +577,31 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1623,19 +1656,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C2" xSplit="2" ySplit="1" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5234" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5234" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1651,494 +1684,604 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" ht="32.05" customHeight="1">
+      <c r="A3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="10">
+      <c r="B3" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="C3" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="D3" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="10">
+      <c r="A4" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="C4" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="D4" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s" s="10">
+      <c r="A5" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="10">
+      <c r="C5" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="D5" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s" s="10">
+      <c r="A6" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="10">
+      <c r="C6" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="D6" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s" s="10">
+      <c r="A7" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="B7" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s" s="10">
+      <c r="A8" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="C8" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s" s="10">
+      <c r="A9" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="C9" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s" s="10">
+      <c r="A10" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="C10" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>41</v>
+      </c>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s" s="10">
+      <c r="A11" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="C11" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s" s="10">
+      <c r="A12" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s" s="10">
         <v>46</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="C12" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s" s="10">
+      <c r="A13" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s" s="10">
         <v>50</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="C13" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>53</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="A14" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" ht="32.05" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s" s="9">
+      <c r="A15" t="s" s="9">
         <v>54</v>
       </c>
-      <c r="C15" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="B15" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s" s="12">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s" s="10">
-        <v>59</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="A16" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>63</v>
+      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" ht="32.05" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="A17" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>68</v>
+      </c>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" ht="32.05" customHeight="1">
-      <c r="A18" t="s" s="8">
+      <c r="A18" t="s" s="9">
         <v>64</v>
       </c>
-      <c r="B18" t="s" s="9">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="E18" s="11"/>
+      <c r="B18" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="E19" s="11"/>
+      <c r="A19" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s" s="11">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s" s="12">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="B20" t="s" s="9">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="E20" s="11"/>
+      <c r="A20" t="s" s="9">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s" s="11">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>80</v>
+      </c>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="E21" s="11"/>
+      <c r="A21" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s" s="11">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s" s="9">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s" s="10">
+      <c r="A22" t="s" s="9">
         <v>81</v>
       </c>
-      <c r="D22" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="E22" s="11"/>
+      <c r="B22" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s" s="12">
+        <v>89</v>
+      </c>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="D23" t="s" s="10">
-        <v>86</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="A23" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s" s="12">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s" s="12">
+        <v>93</v>
+      </c>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" ht="32.05" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s" s="10">
-        <v>90</v>
-      </c>
-      <c r="E24" s="11"/>
+      <c r="A24" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>97</v>
+      </c>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" ht="68.05" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="B25" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="C25" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="E25" s="11"/>
+      <c r="A25" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s" s="11">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s" s="12">
+        <v>101</v>
+      </c>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" ht="32.05" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="B26" t="s" s="9">
-        <v>96</v>
-      </c>
-      <c r="C26" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="D26" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="E26" s="11"/>
+      <c r="A26" t="s" s="9">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="E26" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" ht="32.05" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s" s="10">
-        <v>99</v>
-      </c>
-      <c r="D27" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="E27" s="11"/>
+      <c r="A27" t="s" s="9">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s" s="11">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s" s="12">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>108</v>
+      </c>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>101</v>
-      </c>
-      <c r="B28" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="C28" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="D28" t="s" s="10">
+      <c r="A28" t="s" s="9">
         <v>104</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="B28" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" ht="32.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="B29" t="s" s="9">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="D29" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="E29" s="11"/>
+      <c r="A29" t="s" s="9">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s" s="11">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s" s="12">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s" s="12">
+        <v>115</v>
+      </c>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="B30" t="s" s="9">
-        <v>108</v>
-      </c>
-      <c r="C30" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="D30" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="E30" s="11"/>
+      <c r="A30" t="s" s="9">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s" s="11">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s" s="12">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s" s="12">
+        <v>118</v>
+      </c>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s" s="9">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="D31" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="A31" t="s" s="9">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s" s="11">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s" s="12">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s" s="12">
+        <v>121</v>
+      </c>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="8">
+      <c r="A32" t="s" s="9">
         <v>113</v>
       </c>
-      <c r="B32" t="s" s="9">
-        <v>114</v>
-      </c>
-      <c r="C32" t="s" s="10">
-        <v>114</v>
-      </c>
-      <c r="D32" t="s" s="10">
-        <v>114</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="B32" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s" s="11">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s" s="12">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s" s="12">
+        <v>123</v>
+      </c>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" ht="32.05" customHeight="1">
-      <c r="A33" t="s" s="8">
+      <c r="A33" t="s" s="9">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s" s="12">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s" s="12">
+        <v>125</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" ht="32.05" customHeight="1">
+      <c r="A34" t="s" s="9">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s" s="11">
         <v>115</v>
       </c>
-      <c r="B33" t="s" s="9">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="D33" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="D34" t="s" s="12">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s" s="12">
+        <v>127</v>
+      </c>
+      <c r="F34" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
